--- a/biology/Botanique/Matelea_palustris/Matelea_palustris.xlsx
+++ b/biology/Botanique/Matelea_palustris/Matelea_palustris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Matelea palustris est une espèce d'arbuste sub-endémique de Guyane, appartenant à la famille des Apocynaceae. C'est l'espèce type du genre Matelea Aubl.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Matelea palustris est un arbuste atteignant 1 m de haut. 
 Ses tiges portent une pubescence omniprésente, dense ou éparse, composée de trichomes non-glanduleux rétroréfléchis ou étalés, longs de 0,08-0,4 mm, et de trichomes glanduleux capitonnés étalés, longs de 0,04-0,1 mm. 
@@ -531,7 +545,7 @@
 La tête de style mesure 1,7-2,2 mm de diamètre, est porté sur une stipe haut de 0,7-0,9 mm, et est dépourvu d'appendice terminal.
 Les pollinies ovoïdes, mesurent environ 0,4-0,5 mm x 0,25-0,27 mm, sont portées par un corpuscule long de 0,19-0,21 mm, et pourvues de caudicules. 
 Les fruits sont des follicules fusiformes, mesurant 7,8-8,1 x 1,1-1,2 cm, modérément pubescents, (trichomes non-ganduleux antrorse, rétrorse, ou étalés, longs de 0,25-0,28 mm, et trichomes glanduleux capitonnés étalés, longs de 0,04-0,06 mm).
-Les graines sont planes, de forme obovales, mesurant 8,6 × 4,5 mm, à surfaces glabres, avec la marge distale dentée[3].
+Les graines sont planes, de forme obovales, mesurant 8,6 × 4,5 mm, à surfaces glabres, avec la marge distale dentée.
 </t>
         </is>
       </c>
@@ -560,9 +574,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On rencontre Matelea palustris sur le plateau des Guyanes de l'estuaire de l'Orénoque à l'Oyapock[2]. Elle serait même endémique de Guyane selon une source plus précise (présence avérée sur une bande assez étroite située à environ 50 km de la côte, depuis la région de Cayenne (Guyane) jusqu'à l'Oyapock et présence non confirmée en Amapá - Brésil)[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre Matelea palustris sur le plateau des Guyanes de l'estuaire de l'Orénoque à l'Oyapock. Elle serait même endémique de Guyane selon une source plus précise (présence avérée sur une bande assez étroite située à environ 50 km de la côte, depuis la région de Cayenne (Guyane) jusqu'à l'Oyapock et présence non confirmée en Amapá - Brésil).
 </t>
         </is>
       </c>
@@ -591,11 +607,13 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On rencontre généralement Matelea palustris dans la végétation ripicole, depuis le niveau de la mer jusqu'à 50 m d'altitude, fleurit en Guyane d'août à décembre, et fructifie en octobre[3].
-Une autre source plus ancienne (qui confond probablement Matelea palustris avec Matelea graciliflora), rapporte qu'elle affectionne les zones humides le long des cours d'eau, fleurit de mai à novembre et fructifie en juin[4].
-La taxonomie de Matelea palustris est complexe et a fait l'objet d'une étude avec les espèces voisines Matelea herbacea et Matelea graciliflora[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre généralement Matelea palustris dans la végétation ripicole, depuis le niveau de la mer jusqu'à 50 m d'altitude, fleurit en Guyane d'août à décembre, et fructifie en octobre.
+Une autre source plus ancienne (qui confond probablement Matelea palustris avec Matelea graciliflora), rapporte qu'elle affectionne les zones humides le long des cours d'eau, fleurit de mai à novembre et fructifie en juin.
+La taxonomie de Matelea palustris est complexe et a fait l'objet d'une étude avec les espèces voisines Matelea herbacea et Matelea graciliflora.
 </t>
         </is>
       </c>
@@ -624,9 +642,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet a décrit cette espèce sous deux noms différents Matelea palustris et Matelea latifolia, dont les protologues sont les suivants[5] : 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet a décrit cette espèce sous deux noms différents Matelea palustris et Matelea latifolia, dont les protologues sont les suivants : 
 « 1. MATELEA (paluſtris) foliis oblongo-ovatis, acuminatis, floribus axillaribus. (TABULA 109.) 
 Planta bipedalis, caules plures, nodoſos, rectos, annuos è radice perenni protrudens. Folia oppoſita, ovato-oblonga, anguſta, acuta, integerrima, biglanduloſa, longè petiolata, petiolis ad baſim, etiam biglanduloſis, &amp; lineà, utrinquè villoſà connexis. Flores corymboſi axiliares ; pedunculi communes, &amp; partiales squamula brevi ad baſim muniuntur.
 Varietas hujuſdem plantæ obſervatur, foliis amplioribus, calice majori, &amp; corollis omninò viridibus.
